--- a/data/Prioridades/PC_ORDEN_Norm.xlsx
+++ b/data/Prioridades/PC_ORDEN_Norm.xlsx
@@ -343,7 +343,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>0.40992248062015507</v>
+        <v>0.35902840511623263</v>
       </c>
       <c r="C3" s="4">
         <v>0.259</v>
@@ -354,7 +354,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>1.0450290439276486</v>
+        <v>0.9152830807763157</v>
       </c>
       <c r="C4" s="4">
         <v>0.149</v>
@@ -365,7 +365,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>2.0900580878552972</v>
+        <v>1.8305661615526314</v>
       </c>
       <c r="C5" s="4">
         <v>0.071</v>
@@ -376,7 +376,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>2.4595348837209303</v>
+        <v>2.1541704306973957</v>
       </c>
       <c r="C6" s="4">
         <v>0.066</v>
@@ -387,7 +387,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>3.1350871317829463</v>
+        <v>2.7458492423289473</v>
       </c>
       <c r="C7" s="4">
         <v>0.06</v>
@@ -398,7 +398,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>3.4160206718346258</v>
+        <v>2.9919033759686053</v>
       </c>
       <c r="C8" s="4">
         <v>0.034</v>
@@ -409,7 +409,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>4.1801161757105945</v>
+        <v>3.661132323105263</v>
       </c>
       <c r="C9" s="4">
         <v>0.032</v>
@@ -420,7 +420,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>5.225145219638243</v>
+        <v>4.576415403881579</v>
       </c>
       <c r="C10" s="4">
         <v>0.023</v>
